--- a/infoTable/导师及选题方向.xlsx
+++ b/infoTable/导师及选题方向.xlsx
@@ -1,60 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\think\Documents\Tencent Files\740337447\FileRecv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="学生名单" sheetId="1" r:id="rId1"/>
+    <sheet name="导师" sheetId="2" r:id="rId2"/>
+    <sheet name="选题方向" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="WANGLIYING_MSQL2012_TeacherWork2_职工表" localSheetId="0" hidden="1">Sheet1!$A$1:$L$22</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Administrator\Documents\我的数据源\WANGLIYING_MSQL2012 TeacherWork2 职工表.odc" keepAlive="1" name="WANGLIYING_MSQL2012 TeacherWork2 职工表" type="5" refreshedVersion="3" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;User ID=sa;Initial Catalog=TeacherWork2;Data Source=WANGLIYING\MSQL2012;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=WANGLIYING;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;TeacherWork2&quot;.&quot;dbo&quot;.&quot;职工表&quot;" commandType="3"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+  <si>
+    <t>学   号</t>
+  </si>
+  <si>
+    <t>姓   名</t>
+  </si>
+  <si>
+    <t>选题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭号码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师分配</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>张义兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术课程与教学</t>
   </si>
   <si>
     <t>曹梅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>叶晓玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学设计</t>
+  </si>
+  <si>
+    <t>教育信息化</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>柏宏权</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>baihongquan@163.com</t>
   </si>
   <si>
     <t>仇宏斌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>qhb323@163.com</t>
   </si>
   <si>
     <t>姜杰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>netj@sohu.com</t>
@@ -64,53 +111,53 @@
   </si>
   <si>
     <t>陆志海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>lzh_js@sina.com</t>
   </si>
   <si>
     <t>史慧敏</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>nj_huizi@sohu.com</t>
   </si>
   <si>
     <t>田俊华</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>njnu02@163.com</t>
   </si>
   <si>
     <t>王丽英</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>徐朝军</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>xuchaoju@163.com</t>
   </si>
   <si>
     <t>尤海宁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>xicixiaoqi_yhn@sina.com</t>
   </si>
   <si>
     <t>朱彩兰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>zhucl_nj@163.com</t>
   </si>
   <si>
     <t>钟柏昌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>zhongbc@163.com</t>
@@ -120,168 +167,270 @@
   </si>
   <si>
     <t>yxlheart@126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学软件设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉媒体设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习评价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习过程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习行为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络学习、移动学习、远程教育</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育问题研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子方向1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子方向2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子方向3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育软件开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏软件设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程体系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交媒体研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李建生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jianshengli333@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>02245</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42027</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>王君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>王蔚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42056</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42066</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42067</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>张舒予</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42076</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42080</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42081</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42082</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42085</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42092</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>02414</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>庞明勇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>02238</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>02396</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>02024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>02247</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>02447</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>njnuwangwei@yahoo.com</t>
   </si>
   <si>
     <t>wangliying@njnu.edu.cn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术教学</t>
+  </si>
+  <si>
+    <t>网络教学与学习</t>
+  </si>
+  <si>
+    <t>微视频课件设计</t>
+  </si>
+  <si>
+    <t>信息化政策</t>
+  </si>
+  <si>
+    <t>教育游戏</t>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
+    <t>UI界面</t>
+  </si>
+  <si>
+    <t>教育项目管理/企业教育管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>42043</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵丽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李共</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵丽</t>
-  </si>
-  <si>
-    <t>02461</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190231@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>出生年月</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>照片</t>
-  </si>
-  <si>
-    <t>权限</t>
-  </si>
-  <si>
-    <t>院系</t>
-  </si>
-  <si>
-    <t>职称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小学创客作品设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导老师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟柏昌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须到随园进实验室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏铭徽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13584009196</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>740337447</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>740337447@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶晓玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交媒体研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育信息化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13511183552</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李建生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +448,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -306,7 +464,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -321,6 +496,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -329,6 +537,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="楷体_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
@@ -343,6 +557,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -359,6 +579,31 @@
       <color rgb="FF555555"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -369,7 +614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -418,150 +663,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="3"/>
+    <cellStyle name="汇总" xfId="4" builtinId="25"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="WANGLIYING_MSQL2012 TeacherWork2 职工表" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
-    <queryTableFields count="12">
-      <queryTableField id="1" name="工号" tableColumnId="1"/>
-      <queryTableField id="2" name="密码" tableColumnId="2"/>
-      <queryTableField id="3" name="姓名" tableColumnId="3"/>
-      <queryTableField id="4" name="出生年月" tableColumnId="4"/>
-      <queryTableField id="5" name="邮箱" tableColumnId="5"/>
-      <queryTableField id="6" name="性别" tableColumnId="6"/>
-      <queryTableField id="7" name="联系方式" tableColumnId="7"/>
-      <queryTableField id="8" name="简介" tableColumnId="8"/>
-      <queryTableField id="9" name="照片" tableColumnId="9"/>
-      <queryTableField id="10" name="权限" tableColumnId="10"/>
-      <queryTableField id="11" name="院系" tableColumnId="11"/>
-      <queryTableField id="12" name="职称" tableColumnId="12"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表_WANGLIYING_MSQL2012_TeacherWork2_职工表" displayName="表_WANGLIYING_MSQL2012_TeacherWork2_职工表" ref="A1:L22" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L22"/>
-  <tableColumns count="12">
-    <tableColumn id="1" uniqueName="1" name="工号" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" uniqueName="2" name="密码" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="姓名" queryTableFieldId="3" dataDxfId="0"/>
-    <tableColumn id="4" uniqueName="4" name="出生年月" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" uniqueName="5" name="邮箱" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="性别" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="联系方式" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="简介" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="照片" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="权限" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="院系" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="职称" queryTableFieldId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,7 +873,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,9 +905,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,6 +940,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,368 +1116,964 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="17"/>
+    <col min="3" max="3" width="26.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="3" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
-        <v>13813906378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
-        <v>13951781999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2">
-        <v>13913929606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75">
-      <c r="A5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2">
-        <v>13852295955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2">
-        <v>13952082206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2">
-        <v>13813838927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2">
-        <v>13951008163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="5">
-        <v>13770686389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75">
-      <c r="A10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2">
-        <v>13770795126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75">
-      <c r="A11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>13913958778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2">
-        <v>13813929812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="6">
-        <v>15850584881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="6">
-        <v>13913892786</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="6">
-        <v>13813858639</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="11">
-        <v>13951692264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="6">
-        <v>18013020988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="2">
-        <v>13851786036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="13">
-        <v>42006</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="10">
-        <v>42072</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="23">
+        <v>4130124</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="14"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="14"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="14"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="14"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="14"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="33"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="33"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="33"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="33"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="14"/>
+      <c r="B42" s="10"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="33"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="33"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="14"/>
+      <c r="B45" s="10"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="14"/>
+      <c r="B46" s="10"/>
+      <c r="G46" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1"/>
-    <hyperlink ref="E15" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E17" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13813906378</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13951781999</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13913929606</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13852295955</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13952082206</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13813838927</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3">
+        <v>13951008163</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A9" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6">
+        <v>13770686389</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13770795126</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>13913958778</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>13813929812</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>15850584881</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13913892786</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13813858639</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="36">
+        <v>13951692264</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="B17" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="43">
+        <v>42006</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="35">
+        <v>42072</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
+      <c r="A20" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3">
+        <v>13851786036</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25">
+      <c r="A22" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D13" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="39"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="40"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A16" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickTop="1" thickBot="1">
+      <c r="A17" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickTop="1" thickBot="1">
+      <c r="A18" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickTop="1" thickBot="1">
+      <c r="A19" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickTop="1" thickBot="1">
+      <c r="A20" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickTop="1" thickBot="1">
+      <c r="A21" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.25" thickTop="1">
+      <c r="A22" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>